--- a/白話翻譯/文言文入門一白話翻譯.xlsx
+++ b/白話翻譯/文言文入門一白話翻譯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\OneDrive\Desktop\wenyanwen\白話翻譯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7527320-3CA6-47D4-AE0C-8EDBDBDD9B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9630F9-5B90-472F-8A46-A55DD51CDC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D23FF6D6-FF19-47FD-B850-9AB7D41372AD}"/>
   </bookViews>
@@ -16,42 +16,42 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$28</definedName>
-    <definedName name="_ftn10" localSheetId="0">Sheet1!$A$37</definedName>
+    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$27</definedName>
+    <definedName name="_ftn10" localSheetId="0">Sheet1!$A$36</definedName>
     <definedName name="_ftn11" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="_ftn12" localSheetId="0">Sheet1!$A$38</definedName>
-    <definedName name="_ftn13" localSheetId="0">Sheet1!$A$40</definedName>
-    <definedName name="_ftn14" localSheetId="0">Sheet1!$A$41</definedName>
-    <definedName name="_ftn15" localSheetId="0">Sheet1!$A$42</definedName>
-    <definedName name="_ftn16" localSheetId="0">Sheet1!$A$43</definedName>
-    <definedName name="_ftn17" localSheetId="0">Sheet1!$A$44</definedName>
-    <definedName name="_ftn18" localSheetId="0">Sheet1!$A$45</definedName>
-    <definedName name="_ftn19" localSheetId="0">Sheet1!$A$47</definedName>
-    <definedName name="_ftn2" localSheetId="0">Sheet1!$A$29</definedName>
-    <definedName name="_ftn20" localSheetId="0">Sheet1!$A$48</definedName>
-    <definedName name="_ftn21" localSheetId="0">Sheet1!$A$49</definedName>
-    <definedName name="_ftn22" localSheetId="0">Sheet1!$A$50</definedName>
-    <definedName name="_ftn23" localSheetId="0">Sheet1!$A$51</definedName>
-    <definedName name="_ftn24" localSheetId="0">Sheet1!$A$55</definedName>
-    <definedName name="_ftn25" localSheetId="0">Sheet1!$A$56</definedName>
-    <definedName name="_ftn26" localSheetId="0">Sheet1!$A$57</definedName>
-    <definedName name="_ftn27" localSheetId="0">Sheet1!$A$58</definedName>
-    <definedName name="_ftn28" localSheetId="0">Sheet1!$A$59</definedName>
-    <definedName name="_ftn29" localSheetId="0">Sheet1!$A$60</definedName>
-    <definedName name="_ftn3" localSheetId="0">Sheet1!$A$30</definedName>
-    <definedName name="_ftn30" localSheetId="0">Sheet1!$A$63</definedName>
-    <definedName name="_ftn31" localSheetId="0">Sheet1!$A$64</definedName>
-    <definedName name="_ftn32" localSheetId="0">Sheet1!$A$65</definedName>
-    <definedName name="_ftn33" localSheetId="0">Sheet1!$A$66</definedName>
-    <definedName name="_ftn34" localSheetId="0">Sheet1!$A$67</definedName>
-    <definedName name="_ftn35" localSheetId="0">Sheet1!$A$68</definedName>
-    <definedName name="_ftn4" localSheetId="0">Sheet1!$A$31</definedName>
-    <definedName name="_ftn5" localSheetId="0">Sheet1!$A$32</definedName>
-    <definedName name="_ftn6" localSheetId="0">Sheet1!$A$33</definedName>
+    <definedName name="_ftn12" localSheetId="0">Sheet1!$A$37</definedName>
+    <definedName name="_ftn13" localSheetId="0">Sheet1!$A$39</definedName>
+    <definedName name="_ftn14" localSheetId="0">Sheet1!$A$40</definedName>
+    <definedName name="_ftn15" localSheetId="0">Sheet1!$A$41</definedName>
+    <definedName name="_ftn16" localSheetId="0">Sheet1!$A$42</definedName>
+    <definedName name="_ftn17" localSheetId="0">Sheet1!$A$43</definedName>
+    <definedName name="_ftn18" localSheetId="0">Sheet1!$A$44</definedName>
+    <definedName name="_ftn19" localSheetId="0">Sheet1!$A$46</definedName>
+    <definedName name="_ftn2" localSheetId="0">Sheet1!$A$28</definedName>
+    <definedName name="_ftn20" localSheetId="0">Sheet1!$A$47</definedName>
+    <definedName name="_ftn21" localSheetId="0">Sheet1!$A$48</definedName>
+    <definedName name="_ftn22" localSheetId="0">Sheet1!$A$49</definedName>
+    <definedName name="_ftn23" localSheetId="0">Sheet1!$A$50</definedName>
+    <definedName name="_ftn24" localSheetId="0">Sheet1!$A$65</definedName>
+    <definedName name="_ftn25" localSheetId="0">Sheet1!$A$55</definedName>
+    <definedName name="_ftn26" localSheetId="0">Sheet1!$A$56</definedName>
+    <definedName name="_ftn27" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_ftn28" localSheetId="0">Sheet1!$A$58</definedName>
+    <definedName name="_ftn29" localSheetId="0">Sheet1!$A$59</definedName>
+    <definedName name="_ftn3" localSheetId="0">Sheet1!$A$29</definedName>
+    <definedName name="_ftn30" localSheetId="0">Sheet1!$A$62</definedName>
+    <definedName name="_ftn31" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_ftn32" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_ftn33" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_ftn34" localSheetId="0">Sheet1!$A$66</definedName>
+    <definedName name="_ftn35" localSheetId="0">Sheet1!$A$67</definedName>
+    <definedName name="_ftn4" localSheetId="0">Sheet1!$A$30</definedName>
+    <definedName name="_ftn5" localSheetId="0">Sheet1!$A$31</definedName>
+    <definedName name="_ftn6" localSheetId="0">Sheet1!$A$32</definedName>
     <definedName name="_ftn7" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="_ftn8" localSheetId="0">Sheet1!$A$35</definedName>
-    <definedName name="_ftn9" localSheetId="0">Sheet1!$A$34</definedName>
-    <definedName name="_Hlk52555245" localSheetId="0">Sheet1!$A$30</definedName>
+    <definedName name="_ftn8" localSheetId="0">Sheet1!$A$34</definedName>
+    <definedName name="_ftn9" localSheetId="0">Sheet1!$A$33</definedName>
+    <definedName name="_Hlk52555245" localSheetId="0">Sheet1!$A$29</definedName>
     <definedName name="_Hlk77603944" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>楚國有祀館。</t>
   </si>
@@ -282,6 +282,246 @@
   </si>
   <si>
     <t>大學</t>
+  </si>
+  <si>
+    <t>大學之道在明明德</t>
+  </si>
+  <si>
+    <t>在親民在止於至善</t>
+  </si>
+  <si>
+    <t>知止而后有定定而后能靜</t>
+  </si>
+  <si>
+    <t>靜而后能安安而后能慮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">慮而后能得 </t>
+  </si>
+  <si>
+    <t>物有本末事有終</t>
+  </si>
+  <si>
+    <t>始知所先後則近道矣</t>
+  </si>
+  <si>
+    <t>古之欲明明德於天下者</t>
+  </si>
+  <si>
+    <t>先治其國</t>
+  </si>
+  <si>
+    <t>欲治其國者先齊其家</t>
+  </si>
+  <si>
+    <t>欲齊其家者先修其身</t>
+  </si>
+  <si>
+    <t>欲修其身者先正其心</t>
+  </si>
+  <si>
+    <t>欲正其心者先誠其意</t>
+  </si>
+  <si>
+    <t>欲誠其意者先致其知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">致知在格物 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">物格而后知至 </t>
+  </si>
+  <si>
+    <t>知至而后意誠</t>
+  </si>
+  <si>
+    <t>意誠而后心正</t>
+  </si>
+  <si>
+    <t>心正而后身修</t>
+  </si>
+  <si>
+    <t>身修而后家齊</t>
+  </si>
+  <si>
+    <t>家齊而后國治</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國治而后天下平 </t>
+  </si>
+  <si>
+    <t>以五十步笑百步</t>
+  </si>
+  <si>
+    <t>梁惠王曰寡人之於國也</t>
+  </si>
+  <si>
+    <t>盡心焉耳矣</t>
+  </si>
+  <si>
+    <t>河內凶則移其民於河東</t>
+  </si>
+  <si>
+    <t>移其粟於河內</t>
+  </si>
+  <si>
+    <t>河東凶亦然</t>
+  </si>
+  <si>
+    <t>察鄰國之政</t>
+  </si>
+  <si>
+    <t>無如寡人之用心者</t>
+  </si>
+  <si>
+    <t>鄰國之民不加少</t>
+  </si>
+  <si>
+    <t>寡人之民不加多何也</t>
+  </si>
+  <si>
+    <t>孟子對曰王好戰請以戰喻</t>
+  </si>
+  <si>
+    <t>填然鼓之</t>
+  </si>
+  <si>
+    <t>兵刃既接棄甲曳兵而走。</t>
+  </si>
+  <si>
+    <t>或百步而後止或五十步而後止</t>
+  </si>
+  <si>
+    <t>以五十步笑百步則何如</t>
+  </si>
+  <si>
+    <t>曰不可直不百步耳是亦走也</t>
+  </si>
+  <si>
+    <t>曰王如知此</t>
+  </si>
+  <si>
+    <t>則無望民之多於鄰國也</t>
+  </si>
+  <si>
+    <t>魚之樂</t>
+  </si>
+  <si>
+    <t>莊子與惠子遊於濠梁之上</t>
+  </si>
+  <si>
+    <t>儵魚出遊從容，是魚之樂也</t>
+  </si>
+  <si>
+    <t>子非魚安知魚之樂</t>
+  </si>
+  <si>
+    <t>子非我，安知我不知魚之樂</t>
+  </si>
+  <si>
+    <t>我非子固不知子矣</t>
+  </si>
+  <si>
+    <t>子固非魚也子之不知魚之樂</t>
+  </si>
+  <si>
+    <t>全矣</t>
+  </si>
+  <si>
+    <t>請循其本</t>
+  </si>
+  <si>
+    <t>子曰『汝安知魚樂』云者</t>
+  </si>
+  <si>
+    <t>既已知吾知之而問我</t>
+  </si>
+  <si>
+    <t>我知之濠上也</t>
+  </si>
+  <si>
+    <t>滕文公問說：</t>
+  </si>
+  <si>
+    <t>滕是小的國家</t>
+  </si>
+  <si>
+    <t>竭力來事奉大的國家</t>
+  </si>
+  <si>
+    <t>卻不得避免它(被侵略的災難)</t>
+  </si>
+  <si>
+    <t>像它(這件事)要怎麼辦才行</t>
+  </si>
+  <si>
+    <t>孟子恭敬的說</t>
+  </si>
+  <si>
+    <t>從前，太王安居於邠</t>
+  </si>
+  <si>
+    <t>狄人侵略它</t>
+  </si>
+  <si>
+    <t>之=太王還是邠？</t>
+  </si>
+  <si>
+    <t>用獸皮布帛事奉他們，不能避免它</t>
+  </si>
+  <si>
+    <t>用犬馬事奉他們，不能避免它</t>
+  </si>
+  <si>
+    <t>用珍珠玉器事奉他們，不能避免它</t>
+  </si>
+  <si>
+    <t>就召集他的長老而後告訴他們說</t>
+  </si>
+  <si>
+    <t>狄人所想要的(東西)</t>
+  </si>
+  <si>
+    <t>(是)我的土地。我聽聞如此：</t>
+  </si>
+  <si>
+    <t>君子不會因[他用來養活的]害人</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>你們機位何必擔心沒有君主呢？</t>
+  </si>
+  <si>
+    <t>我即將離開這裏</t>
+  </si>
+  <si>
+    <t>去邠越過梁山</t>
+  </si>
+  <si>
+    <t>建築城鎮於岐山之下，安居那裏</t>
+  </si>
+  <si>
+    <t>邠人說：仁人。不可以失去他</t>
+  </si>
+  <si>
+    <t>跟從他的人好像到市場的人(這麼多)</t>
+  </si>
+  <si>
+    <t>有人說</t>
+  </si>
+  <si>
+    <t>(土地是)世世代代保守的</t>
+  </si>
+  <si>
+    <t>不是自身所做出的</t>
+  </si>
+  <si>
+    <t>獻出生命不離開</t>
+  </si>
+  <si>
+    <t>請您選擇於二者其中</t>
   </si>
 </sst>
 </file>
@@ -304,13 +544,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="DFKai-SB"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="DFKai-SB"/>
       <family val="4"/>
@@ -339,13 +579,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,332 +902,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA95161-D470-4C44-A3D9-5395312609B6}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="159" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="28.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="B33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="36" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="36" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="36" x14ac:dyDescent="0.4">
+      <c r="A92" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="36" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="36" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A90:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/白話翻譯/文言文入門一白話翻譯.xlsx
+++ b/白話翻譯/文言文入門一白話翻譯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\OneDrive\Desktop\wenyanwen\白話翻譯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9630F9-5B90-472F-8A46-A55DD51CDC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594018A-6FB9-42FE-8950-17FB45D08298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D23FF6D6-FF19-47FD-B850-9AB7D41372AD}"/>
   </bookViews>
